--- a/BballMVC/_Documentation/Sql Server Objects.xlsx
+++ b/BballMVC/_Documentation/Sql Server Objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627BA548-5848-419D-A02F-457AB1510B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212B8DC-D15C-48F0-943F-EACE6AC9F0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="765" windowWidth="24135" windowHeight="12705" activeTab="1" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
+    <workbookView xWindow="29040" yWindow="390" windowWidth="24135" windowHeight="12705" activeTab="1" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SS Obj Types" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -492,8 +492,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -942,7 +942,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5837BC7F-B52E-4746-9C41-A9D76A97E3E4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1037,11 +1036,11 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(A3&lt;&gt;H3, "NE", "")</f>
+        <f t="shared" ref="F3:F34" si="0">IF(A3&lt;&gt;H3, "NE", "")</f>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">IF(OR(A3="",H3=""),"", IF(C3&gt;J3+TIME(1,0,0),"UPDATE",""))</f>
+        <f t="shared" ref="G3:G66" si="1">IF(OR(A3="",H3=""),"", IF(C3&gt;J3+TIME(1,0,0),"UPDATE",""))</f>
         <v/>
       </c>
       <c r="H3" t="s">
@@ -1060,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1077,11 +1076,11 @@
         <v>9</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(A4&lt;&gt;H4, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H4" t="s">
@@ -1100,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1117,11 +1116,11 @@
         <v>9</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(A5&lt;&gt;H5, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H5" t="s">
@@ -1140,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1157,11 +1156,11 @@
         <v>9</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(A6&lt;&gt;H6, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H6" t="s">
@@ -1180,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1197,11 +1196,11 @@
         <v>9</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(A7&lt;&gt;H7, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H7" t="s">
@@ -1220,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1237,15 +1236,15 @@
         <v>9</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(A8&lt;&gt;H8, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v>NE</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1262,11 +1261,11 @@
         <v>9</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(A9&lt;&gt;H9, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H9" t="s">
@@ -1285,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1302,11 +1301,11 @@
         <v>9</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(A10&lt;&gt;H10, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H10" t="s">
@@ -1325,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1342,11 +1341,11 @@
         <v>9</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(A11&lt;&gt;H11, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H11" t="s">
@@ -1365,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1382,11 +1381,11 @@
         <v>9</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(A12&lt;&gt;H12, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H12" t="s">
@@ -1405,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1422,11 +1421,11 @@
         <v>9</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(A13&lt;&gt;H13, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H13" t="s">
@@ -1445,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1462,11 +1461,11 @@
         <v>9</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(A14&lt;&gt;H14, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H14" t="s">
@@ -1485,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1502,11 +1501,11 @@
         <v>9</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(A15&lt;&gt;H15, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" t="s">
@@ -1525,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1542,11 +1541,11 @@
         <v>9</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(A16&lt;&gt;H16, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H16" t="s">
@@ -1565,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1582,11 +1581,11 @@
         <v>9</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(A17&lt;&gt;H17, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H17" t="s">
@@ -1605,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1622,11 +1621,11 @@
         <v>9</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(A18&lt;&gt;H18, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H18" t="s">
@@ -1645,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1662,11 +1661,11 @@
         <v>11</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(A19&lt;&gt;H19, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H19" t="s">
@@ -1685,7 +1684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1702,11 +1701,11 @@
         <v>11</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(A20&lt;&gt;H20, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H20" t="s">
@@ -1725,7 +1724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1742,11 +1741,11 @@
         <v>11</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(A21&lt;&gt;H21, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H21" t="s">
@@ -1765,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1782,11 +1781,11 @@
         <v>11</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(A22&lt;&gt;H22, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H22" t="s">
@@ -1805,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1822,11 +1821,11 @@
         <v>11</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(A23&lt;&gt;H23, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H23" t="s">
@@ -1845,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1862,11 +1861,11 @@
         <v>11</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(A24&lt;&gt;H24, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H24" t="s">
@@ -1885,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1902,11 +1901,11 @@
         <v>11</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(A25&lt;&gt;H25, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H25" t="s">
@@ -1942,11 +1941,11 @@
         <v>11</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(A26&lt;&gt;H26, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>UPDATE</v>
       </c>
       <c r="H26" t="s">
@@ -1965,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1982,11 +1981,11 @@
         <v>11</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(A27&lt;&gt;H27, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H27" t="s">
@@ -2005,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2022,11 +2021,11 @@
         <v>11</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(A28&lt;&gt;H28, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H28" t="s">
@@ -2045,7 +2044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2062,11 +2061,11 @@
         <v>11</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(A29&lt;&gt;H29, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H29" t="s">
@@ -2085,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2102,11 +2101,11 @@
         <v>11</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(A30&lt;&gt;H30, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H30" t="s">
@@ -2125,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2142,11 +2141,11 @@
         <v>11</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(A31&lt;&gt;H31, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H31" t="s">
@@ -2165,7 +2164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2182,11 +2181,11 @@
         <v>11</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(A32&lt;&gt;H32, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H32" t="s">
@@ -2205,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2222,11 +2221,11 @@
         <v>11</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(A33&lt;&gt;H33, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H33" t="s">
@@ -2245,7 +2244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2262,11 +2261,11 @@
         <v>11</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(A34&lt;&gt;H34, "NE", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H34" t="s">
@@ -2285,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -2302,11 +2301,11 @@
         <v>11</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(A35&lt;&gt;H35, "NE", "")</f>
+        <f t="shared" ref="F35:F54" si="2">IF(A35&lt;&gt;H35, "NE", "")</f>
         <v/>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H35" t="s">
@@ -2325,7 +2324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2342,11 +2341,11 @@
         <v>11</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(A36&lt;&gt;H36, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H36" t="s">
@@ -2365,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2382,11 +2381,11 @@
         <v>11</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(A37&lt;&gt;H37, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H37" t="s">
@@ -2405,7 +2404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2422,11 +2421,11 @@
         <v>11</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(A38&lt;&gt;H38, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H38" t="s">
@@ -2445,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2462,11 +2461,11 @@
         <v>11</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(A39&lt;&gt;H39, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H39" t="s">
@@ -2485,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2502,11 +2501,11 @@
         <v>11</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(A40&lt;&gt;H40, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H40" t="s">
@@ -2525,7 +2524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2542,11 +2541,11 @@
         <v>11</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(A41&lt;&gt;H41, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H41" t="s">
@@ -2565,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2582,11 +2581,11 @@
         <v>11</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(A42&lt;&gt;H42, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H42" t="s">
@@ -2605,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -2622,11 +2621,11 @@
         <v>11</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(A43&lt;&gt;H43, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H43" t="s">
@@ -2645,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -2662,11 +2661,11 @@
         <v>11</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(A44&lt;&gt;H44, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H44" t="s">
@@ -2685,7 +2684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -2702,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(A45&lt;&gt;H45, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H45" t="s">
@@ -2725,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2742,11 +2741,11 @@
         <v>11</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(A46&lt;&gt;H46, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H46" t="s">
@@ -2765,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -2782,11 +2781,11 @@
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(A47&lt;&gt;H47, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H47" t="s">
@@ -2805,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2822,11 +2821,11 @@
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(A48&lt;&gt;H48, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H48" t="s">
@@ -2862,11 +2861,11 @@
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(A49&lt;&gt;H49, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>UPDATE</v>
       </c>
       <c r="H49" t="s">
@@ -2885,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2902,11 +2901,11 @@
         <v>7</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(A50&lt;&gt;H50, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H50" t="s">
@@ -2925,7 +2924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2942,11 +2941,11 @@
         <v>7</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(A51&lt;&gt;H51, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H51" t="s">
@@ -2965,7 +2964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2982,11 +2981,11 @@
         <v>7</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(A52&lt;&gt;H52, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H52" t="s">
@@ -3005,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -3022,11 +3021,11 @@
         <v>13</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(A53&lt;&gt;H53, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H53" t="s">
@@ -3045,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -3062,11 +3061,11 @@
         <v>13</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(A54&lt;&gt;H54, "NE", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H54" t="s">
@@ -3085,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>116</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H55" t="s">
@@ -3124,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>116</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H56" t="s">
@@ -3163,7 +3162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H57" t="s">
@@ -3224,7 +3223,7 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>UPDATE</v>
       </c>
       <c r="H58" t="s">
@@ -3243,7 +3242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v/>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H59" t="s">
@@ -3283,7 +3282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H60" t="s">
@@ -3323,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v/>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H61" t="s">
@@ -3363,7 +3362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -3383,11 +3382,11 @@
         <v>117</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v/>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H63" t="s">
@@ -3427,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -3447,11 +3446,11 @@
         <v>118</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3468,11 +3467,11 @@
         <v>19</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(A65&lt;&gt;H65, "NE", "")</f>
+        <f t="shared" ref="F65:F81" si="3">IF(A65&lt;&gt;H65, "NE", "")</f>
         <v/>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H65" t="s">
@@ -3491,7 +3490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3508,11 +3507,11 @@
         <v>19</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(A66&lt;&gt;H66, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H66" t="s">
@@ -3531,7 +3530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -3548,11 +3547,11 @@
         <v>19</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(A67&lt;&gt;H67, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G85" si="1">IF(OR(A67="",H67=""),"", IF(C67&gt;J67+TIME(1,0,0),"UPDATE",""))</f>
+        <f t="shared" ref="G67:G85" si="4">IF(OR(A67="",H67=""),"", IF(C67&gt;J67+TIME(1,0,0),"UPDATE",""))</f>
         <v/>
       </c>
       <c r="H67" t="s">
@@ -3571,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -3588,11 +3587,11 @@
         <v>19</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(A68&lt;&gt;H68, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H68" t="s">
@@ -3611,7 +3610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -3628,11 +3627,11 @@
         <v>19</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(A69&lt;&gt;H69, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H69" t="s">
@@ -3651,7 +3650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3668,11 +3667,11 @@
         <v>19</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(A70&lt;&gt;H70, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H70" t="s">
@@ -3691,7 +3690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -3708,11 +3707,11 @@
         <v>19</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(A71&lt;&gt;H71, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H71" t="s">
@@ -3731,7 +3730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3748,11 +3747,11 @@
         <v>19</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(A72&lt;&gt;H72, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H72" t="s">
@@ -3771,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -3788,11 +3787,11 @@
         <v>19</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(A73&lt;&gt;H73, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H73" t="s">
@@ -3811,7 +3810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3828,11 +3827,11 @@
         <v>19</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(A74&lt;&gt;H74, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H74" t="s">
@@ -3851,7 +3850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3868,11 +3867,11 @@
         <v>19</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(A75&lt;&gt;H75, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H75" t="s">
@@ -3891,7 +3890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -3908,11 +3907,11 @@
         <v>19</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(A76&lt;&gt;H76, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H76" t="s">
@@ -3931,7 +3930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3948,11 +3947,11 @@
         <v>19</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(A77&lt;&gt;H77, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H77" t="s">
@@ -3971,7 +3970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -3988,11 +3987,11 @@
         <v>19</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(A78&lt;&gt;H78, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H78" t="s">
@@ -4011,7 +4010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -4028,11 +4027,11 @@
         <v>19</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(A79&lt;&gt;H79, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H79" t="s">
@@ -4068,11 +4067,11 @@
         <v>19</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(A80&lt;&gt;H80, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>UPDATE</v>
       </c>
       <c r="H80" t="s">
@@ -4091,7 +4090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -4108,11 +4107,11 @@
         <v>19</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(A81&lt;&gt;H81, "NE", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H81" t="s">
@@ -4131,7 +4130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -4151,11 +4150,11 @@
         <v>118</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v/>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H83" t="s">
@@ -4195,7 +4194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v/>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H84" t="s">
@@ -4235,7 +4234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v/>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H85" t="s">
@@ -4275,7 +4274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -4315,20 +4314,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J87" s="4">
         <f>J86+TIME(1,0,0)</f>
         <v>44065.735800613424</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L87" xr:uid="{554A6C56-487A-47B2-A331-78C042722D1F}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:L87" xr:uid="{554A6C56-487A-47B2-A331-78C042722D1F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/BballMVC/_Documentation/Sql Server Objects.xlsx
+++ b/BballMVC/_Documentation/Sql Server Objects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212B8DC-D15C-48F0-943F-EACE6AC9F0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423BEC5-787C-43FE-AFDB-08666C699B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="390" windowWidth="24135" windowHeight="12705" activeTab="1" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
+    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" activeTab="3" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SS Obj Types" sheetId="1" r:id="rId1"/>
     <sheet name="Obj Compares" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DataBases" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Obj Compares'!$A$2:$L$87</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -396,6 +397,144 @@
   </si>
   <si>
     <t>Compares</t>
+  </si>
+  <si>
+    <t>00TTI_LeagueScores</t>
+  </si>
+  <si>
+    <t>Logical Name</t>
+  </si>
+  <si>
+    <t>00TTI_LeagueScores.mdf</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <r>
+      <t>FERRARI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BBALL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C:\Program Files\Microsoft SQL Server\MSSQL14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BBALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\MSSQL\DATA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>00TTI_LeagueScores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>00TTI_LeagueScores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FERRARI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BBALLPROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C:\Program Files\Microsoft SQL Server\MSSQL14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BBALLPROD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\MSSQL\DATA</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -405,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +564,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -944,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5837BC7F-B52E-4746-9C41-A9D76A97E3E4}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -4363,4 +4509,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92878068-9AB5-44A3-9CF7-D9FE491BFA5D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/Sql Server Objects.xlsx
+++ b/BballMVC/_Documentation/Sql Server Objects.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423BEC5-787C-43FE-AFDB-08666C699B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451BA2A-9234-4B53-BA7D-DCE69EB4D2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" activeTab="3" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
+    <workbookView xWindow="27825" yWindow="810" windowWidth="25200" windowHeight="14400" xr2:uid="{EC0F420E-A971-4FAF-8AD2-912206FB77E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SS Obj Types" sheetId="1" r:id="rId1"/>
     <sheet name="Obj Compares" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="DataBases" sheetId="4" r:id="rId4"/>
+    <sheet name="DataBases" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Obj Compares'!$A$2:$L$87</definedName>
@@ -26,12 +25,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="133">
   <si>
     <t>type</t>
   </si>
@@ -361,9 +367,6 @@
   </si>
   <si>
     <t>TT_typBoxScoresSeedsUpdateCollection_65F62111</t>
-  </si>
-  <si>
-    <t>Adjustments_8_20</t>
   </si>
   <si>
     <t>BoxScoresAdjusted</t>
@@ -976,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE664747-8792-4EA2-BE33-C2DE8077EA32}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -1002,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,14 +1113,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>106</v>
@@ -1144,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>22</v>
@@ -3247,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
@@ -3286,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="4">
         <v>44067.462435104164</v>
@@ -3525,7 +3528,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="4">
         <v>44003.601556828704</v>
@@ -3589,7 +3592,7 @@
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="4">
         <v>44057.892934687501</v>
@@ -4293,7 +4296,7 @@
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="4"/>
@@ -4473,49 +4476,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AFFB82-D121-4DD6-9B5E-E7974789B9DA}">
-  <dimension ref="A2:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44058.50705821759</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44063.366453391202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92878068-9AB5-44A3-9CF7-D9FE491BFA5D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4529,72 +4493,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
